--- a/data/case.xlsx
+++ b/data/case.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="27">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -106,6 +106,22 @@
   </si>
   <si>
     <t>Flyman</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>selenium</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>xpath</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//*[@id="su"]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -465,14 +481,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I5"/>
+  <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="E8" activeCellId="1" sqref="E6 E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
+    <col min="3" max="3" width="14.25" customWidth="1"/>
     <col min="4" max="4" width="8.125" customWidth="1"/>
     <col min="5" max="5" width="30.5" bestFit="1" customWidth="1"/>
   </cols>
@@ -560,6 +577,20 @@
       </c>
       <c r="E5" t="s">
         <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="C6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E6" t="s">
+        <v>26</v>
+      </c>
+      <c r="G6" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>
